--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Email</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>Atanu_Step_670</t>
+  </si>
+  <si>
+    <t>Atanu_Step_684</t>
+  </si>
+  <si>
+    <t>Atanu_Step_136</t>
+  </si>
+  <si>
+    <t>Atanu_Step_935</t>
+  </si>
+  <si>
+    <t>Atanu_Step_816</t>
+  </si>
+  <si>
+    <t>Atanu_Step_49</t>
+  </si>
+  <si>
+    <t>Atanu_Test_152</t>
+  </si>
+  <si>
+    <t>Atanu_Test_940</t>
+  </si>
+  <si>
+    <t>Atanu_Step_245</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1305,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7665" activeTab="2"/>
+    <workbookView windowWidth="20370" windowHeight="7665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Application_Details" sheetId="2" r:id="rId2"/>
     <sheet name="Step_Details" sheetId="3" r:id="rId3"/>
     <sheet name="Application_Removal" sheetId="4" r:id="rId4"/>
+    <sheet name="Section_Details" sheetId="5" r:id="rId5"/>
+    <sheet name="Field_Details" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Email</t>
   </si>
@@ -61,7 +63,7 @@
     <t>atanu</t>
   </si>
   <si>
-    <t>Atanu_Test_356</t>
+    <t>Atanu_Test_940</t>
   </si>
   <si>
     <t>Application Step Name</t>
@@ -109,67 +111,118 @@
     <t>single_column</t>
   </si>
   <si>
-    <t>Atanu_Step_264</t>
-  </si>
-  <si>
-    <t>Atanu_Step_813</t>
-  </si>
-  <si>
-    <t>Atanu_Step_402</t>
-  </si>
-  <si>
-    <t>Atanu_Step_316</t>
-  </si>
-  <si>
-    <t>Atanu_Step_302</t>
-  </si>
-  <si>
-    <t>Atanu_Step_187</t>
-  </si>
-  <si>
-    <t>Atanu_Step_215</t>
-  </si>
-  <si>
-    <t>Atanu_Step_561</t>
-  </si>
-  <si>
-    <t>Atanu_Step_55</t>
-  </si>
-  <si>
-    <t>Atanu_Step_526</t>
-  </si>
-  <si>
-    <t>Atanu_Test_817</t>
-  </si>
-  <si>
-    <t>Atanu_Test_239</t>
-  </si>
-  <si>
-    <t>Atanu_Step_670</t>
-  </si>
-  <si>
-    <t>Atanu_Step_684</t>
-  </si>
-  <si>
-    <t>Atanu_Step_136</t>
-  </si>
-  <si>
-    <t>Atanu_Step_935</t>
-  </si>
-  <si>
-    <t>Atanu_Step_816</t>
-  </si>
-  <si>
-    <t>Atanu_Step_49</t>
-  </si>
-  <si>
-    <t>Atanu_Test_152</t>
-  </si>
-  <si>
-    <t>Atanu_Test_940</t>
-  </si>
-  <si>
     <t>Atanu_Step_245</t>
+  </si>
+  <si>
+    <t>Section Number</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>Section Class Name</t>
+  </si>
+  <si>
+    <t>Modified Section Name</t>
+  </si>
+  <si>
+    <t>Test_Section</t>
+  </si>
+  <si>
+    <t>col-mo-12</t>
+  </si>
+  <si>
+    <t>col-mo-6</t>
+  </si>
+  <si>
+    <t>custom-class</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test_Section_609</t>
+  </si>
+  <si>
+    <t>Unique Id</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Sequence</t>
+  </si>
+  <si>
+    <t>Placeholder Text</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Field Character Limit</t>
+  </si>
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <t>Request API Key</t>
+  </si>
+  <si>
+    <t>Response API Key</t>
+  </si>
+  <si>
+    <t>CSS Class Name</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Modified Uniq Id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Textfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Your Username </t>
+  </si>
+  <si>
+    <t>Username needed</t>
+  </si>
+  <si>
+    <t>http#:/#api-key</t>
+  </si>
+  <si>
+    <t>http#:/#Requestapi-key</t>
+  </si>
+  <si>
+    <t>Responseapi-key</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>col-6</t>
+  </si>
+  <si>
+    <t>Comparison Field</t>
+  </si>
+  <si>
+    <t>test_field122</t>
   </si>
 </sst>
 </file>
@@ -177,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,6 +241,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +274,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,23 +334,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +372,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -264,82 +387,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,31 +403,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,151 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,62 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +636,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,156 +708,165 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1132,28 +1194,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="27.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>123456</v>
       </c>
     </row>
@@ -1174,28 +1236,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
@@ -1203,23 +1265,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1233,79 +1295,79 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" s="5" customFormat="1" spans="1:9">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1390,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1337,58 +1399,293 @@
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" ht="17.25" spans="1:1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" ht="17.25" spans="1:1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" ht="17.25" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" ht="17.25" spans="1:1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" ht="17.25" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" ht="17.25" spans="1:1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" ht="17.25" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" ht="17.25" spans="1:1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="17.25" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" ht="17.25" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" ht="17.25" spans="1:1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" ht="17.25" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" ht="17.25" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" ht="17.25" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" ht="17.25" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" ht="17.25" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="24.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="27.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="27.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:9">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="24.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="23.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="19.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="24.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="18.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="27.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="http#:/#api-key"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Email</t>
   </si>
@@ -223,6 +223,78 @@
   </si>
   <si>
     <t>test_field122</t>
+  </si>
+  <si>
+    <t>Atanu_Test_134</t>
+  </si>
+  <si>
+    <t>Atanu_Test_73</t>
+  </si>
+  <si>
+    <t>Atanu_Test_312</t>
+  </si>
+  <si>
+    <t>Atanu_Step_813</t>
+  </si>
+  <si>
+    <t>Atanu_Step_39</t>
+  </si>
+  <si>
+    <t>Atanu_Step_143</t>
+  </si>
+  <si>
+    <t>Atanu_Step_482</t>
+  </si>
+  <si>
+    <t>Test_Section_327</t>
+  </si>
+  <si>
+    <t>Atanu_Test_657</t>
+  </si>
+  <si>
+    <t>Atanu_Test_536</t>
+  </si>
+  <si>
+    <t>Atanu_Test_802</t>
+  </si>
+  <si>
+    <t>Atanu_Step_322</t>
+  </si>
+  <si>
+    <t>Atanu_Test_166</t>
+  </si>
+  <si>
+    <t>Atanu_Test_835</t>
+  </si>
+  <si>
+    <t>Atanu_Test_338</t>
+  </si>
+  <si>
+    <t>Atanu_Test_544</t>
+  </si>
+  <si>
+    <t>Atanu_Step_978</t>
+  </si>
+  <si>
+    <t>Test_Section_421</t>
+  </si>
+  <si>
+    <t>Test_Section_787</t>
+  </si>
+  <si>
+    <t>Test_Section_304</t>
+  </si>
+  <si>
+    <t>Test_Section_456</t>
+  </si>
+  <si>
+    <t>Test_Section_384</t>
+  </si>
+  <si>
+    <t>Test_Section_138</t>
+  </si>
+  <si>
+    <t>user_name_771</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1271,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1236,12 +1308,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
@@ -1281,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1301,15 +1373,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="17.25" spans="1:9">
@@ -1367,7 +1439,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1462,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1466,15 +1538,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="27.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="27.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
@@ -1532,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1546,30 +1618,30 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="24.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="23.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="19.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="24.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="18.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="27.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7665" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Email</t>
   </si>
@@ -63,7 +63,7 @@
     <t>atanu</t>
   </si>
   <si>
-    <t>Atanu_Test_940</t>
+    <t>Atanu_Test_544</t>
   </si>
   <si>
     <t>Application Step Name</t>
@@ -111,7 +111,7 @@
     <t>single_column</t>
   </si>
   <si>
-    <t>Atanu_Step_245</t>
+    <t>Atanu_Step_766</t>
   </si>
   <si>
     <t>Section Number</t>
@@ -144,7 +144,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Test_Section_609</t>
+    <t>Test_Section_647</t>
   </si>
   <si>
     <t>Unique Id</t>
@@ -225,76 +225,13 @@
     <t>test_field122</t>
   </si>
   <si>
-    <t>Atanu_Test_134</t>
-  </si>
-  <si>
-    <t>Atanu_Test_73</t>
-  </si>
-  <si>
-    <t>Atanu_Test_312</t>
-  </si>
-  <si>
-    <t>Atanu_Step_813</t>
-  </si>
-  <si>
-    <t>Atanu_Step_39</t>
-  </si>
-  <si>
-    <t>Atanu_Step_143</t>
-  </si>
-  <si>
-    <t>Atanu_Step_482</t>
-  </si>
-  <si>
-    <t>Test_Section_327</t>
-  </si>
-  <si>
-    <t>Atanu_Test_657</t>
-  </si>
-  <si>
-    <t>Atanu_Test_536</t>
-  </si>
-  <si>
-    <t>Atanu_Test_802</t>
-  </si>
-  <si>
-    <t>Atanu_Step_322</t>
-  </si>
-  <si>
-    <t>Atanu_Test_166</t>
-  </si>
-  <si>
-    <t>Atanu_Test_835</t>
-  </si>
-  <si>
-    <t>Atanu_Test_338</t>
-  </si>
-  <si>
-    <t>Atanu_Test_544</t>
-  </si>
-  <si>
-    <t>Atanu_Step_978</t>
-  </si>
-  <si>
-    <t>Test_Section_421</t>
-  </si>
-  <si>
-    <t>Test_Section_787</t>
-  </si>
-  <si>
-    <t>Test_Section_304</t>
-  </si>
-  <si>
-    <t>Test_Section_456</t>
-  </si>
-  <si>
-    <t>Test_Section_384</t>
-  </si>
-  <si>
-    <t>Test_Section_138</t>
-  </si>
-  <si>
-    <t>user_name_771</t>
+    <t>user_name_275</t>
+  </si>
+  <si>
+    <t>Test_Section_675</t>
+  </si>
+  <si>
+    <t>Test_Section_375</t>
   </si>
 </sst>
 </file>
@@ -302,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -338,6 +275,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -345,15 +304,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,25 +335,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,42 +359,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,22 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,91 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,85 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,8 +609,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,17 +641,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,24 +671,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,157 +694,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,9 +861,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1276,18 +1210,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>123456</v>
       </c>
     </row>
@@ -1316,20 +1250,20 @@
     <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
@@ -1337,23 +1271,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1367,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1384,62 +1318,62 @@
     <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:9">
+    <row r="2" s="4" customFormat="1" spans="1:9">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1471,55 +1405,55 @@
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" ht="17.25" spans="1:1">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" ht="17.25" spans="1:1">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" ht="17.25" spans="1:1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" ht="17.25" spans="1:1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" ht="17.25" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" ht="17.25" spans="1:1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" ht="17.25" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" ht="17.25" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="17.25" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="17.25" spans="1:1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" ht="17.25" spans="1:1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" ht="17.25" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" ht="17.25" spans="1:1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" ht="17.25" spans="1:1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" ht="17.25" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" ht="17.25" spans="1:1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1556,7 +1490,7 @@
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D1" t="s">
@@ -1578,33 +1512,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1618,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1700,7 +1634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1751,6 +1685,9 @@
       </c>
       <c r="Q2" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7665" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Application_Removal" sheetId="4" r:id="rId4"/>
     <sheet name="Section_Details" sheetId="5" r:id="rId5"/>
     <sheet name="Field_Details" sheetId="6" r:id="rId6"/>
+    <sheet name="Condition_Details" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Email</t>
   </si>
@@ -111,7 +112,7 @@
     <t>single_column</t>
   </si>
   <si>
-    <t>Atanu_Step_766</t>
+    <t>Atanu_Step_684</t>
   </si>
   <si>
     <t>Section Number</t>
@@ -144,7 +145,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Test_Section_647</t>
+    <t>Test_Section_375</t>
   </si>
   <si>
     <t>Unique Id</t>
@@ -228,10 +229,55 @@
     <t>user_name_275</t>
   </si>
   <si>
-    <t>Test_Section_675</t>
-  </si>
-  <si>
-    <t>Test_Section_375</t>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition ID</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Field Unique Id</t>
+  </si>
+  <si>
+    <t>Comparison Operator</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Modified Condition Id</t>
+  </si>
+  <si>
+    <t>Test_Condition</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>##http/api</t>
+  </si>
+  <si>
+    <t>( Condition1 )</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>( Condition2 )</t>
   </si>
 </sst>
 </file>
@@ -239,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -275,6 +321,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -284,20 +344,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -351,6 +397,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,44 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,19 +458,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,21 +657,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,13 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,54 +738,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,97 +805,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1251,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1242,12 +1288,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="34.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
@@ -1301,21 +1347,21 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
@@ -1396,7 +1442,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1472,15 +1518,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
@@ -1538,7 +1584,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1553,29 +1599,29 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="24.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="23.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="19.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="24.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="18.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1697,4 +1743,118 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="20.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="24.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="18.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="22.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12495" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Section_Details" sheetId="5" r:id="rId5"/>
     <sheet name="Field_Details" sheetId="6" r:id="rId6"/>
     <sheet name="Condition_Details" sheetId="7" r:id="rId7"/>
+    <sheet name="Block_Details" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
   <si>
     <t>Email</t>
   </si>
@@ -278,6 +279,111 @@
   </si>
   <si>
     <t>( Condition2 )</t>
+  </si>
+  <si>
+    <t>Application Block Name</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified Block Name</t>
+  </si>
+  <si>
+    <t>genericBlock</t>
+  </si>
+  <si>
+    <t>This is generic block type desc</t>
+  </si>
+  <si>
+    <t>col-mo-10</t>
+  </si>
+  <si>
+    <t>cutom-10-name</t>
+  </si>
+  <si>
+    <t>test_field</t>
+  </si>
+  <si>
+    <t>Atanu_Test_973</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>This is menu block type desc</t>
+  </si>
+  <si>
+    <t>cutom-10</t>
+  </si>
+  <si>
+    <t>Atanu_Test_225</t>
+  </si>
+  <si>
+    <t>Atanu_Step_541</t>
+  </si>
+  <si>
+    <t>Test_Section_101</t>
+  </si>
+  <si>
+    <t>user_name_373</t>
+  </si>
+  <si>
+    <t>user_name_188</t>
+  </si>
+  <si>
+    <t>user_name_596</t>
+  </si>
+  <si>
+    <t>user_name_708</t>
+  </si>
+  <si>
+    <t>user_name_308</t>
+  </si>
+  <si>
+    <t>user_name_180</t>
+  </si>
+  <si>
+    <t>user_name_727</t>
+  </si>
+  <si>
+    <t>user_name_706</t>
+  </si>
+  <si>
+    <t>user_name_186</t>
+  </si>
+  <si>
+    <t>user_name_802</t>
+  </si>
+  <si>
+    <t>user_name_463</t>
+  </si>
+  <si>
+    <t>user_name_668</t>
+  </si>
+  <si>
+    <t>user_name_664</t>
+  </si>
+  <si>
+    <t>user_name_283</t>
+  </si>
+  <si>
+    <t>Atanu_Step_740</t>
+  </si>
+  <si>
+    <t>Test_Section_563</t>
+  </si>
+  <si>
+    <t>user_name_692</t>
+  </si>
+  <si>
+    <t>Atanu_Test_629</t>
+  </si>
+  <si>
+    <t>user_name_20</t>
   </si>
 </sst>
 </file>
@@ -285,10 +391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -321,13 +427,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -340,6 +440,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,14 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -381,14 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -399,6 +506,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,22 +542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,37 +564,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,66 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,73 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,9 +760,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,15 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -696,6 +804,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,164 +855,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1357,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1280,20 +1386,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="34.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
@@ -1333,6 +1439,26 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1347,21 +1473,21 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
@@ -1419,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1568,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1518,15 +1644,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
@@ -1584,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1604,24 +1730,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="24.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="23.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="19.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="24.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="18.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="27.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1733,7 +1859,7 @@
         <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1750,22 +1876,22 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="20.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="24.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="18.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="22.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.7142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="31.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1836,7 +1962,6 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3"/>
       <c r="E3" t="s">
         <v>68</v>
       </c>
@@ -1851,6 +1976,109 @@
       </c>
       <c r="I3" t="s">
         <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.4285714285714" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.8571428571429" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Email</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>user_name_20</t>
+  </si>
+  <si>
+    <t>Atanu_Step_602</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Field_Details" sheetId="6" r:id="rId6"/>
     <sheet name="Condition_Details" sheetId="7" r:id="rId7"/>
     <sheet name="Block_Details" sheetId="8" r:id="rId8"/>
+    <sheet name="Message_Details" sheetId="9" r:id="rId9"/>
+    <sheet name="Workflow_Details" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
   <si>
     <t>Email</t>
   </si>
@@ -113,159 +115,165 @@
     <t>single_column</t>
   </si>
   <si>
+    <t>Atanu_Step_751</t>
+  </si>
+  <si>
+    <t>Section Number</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>Section Class Name</t>
+  </si>
+  <si>
+    <t>Modified Section Name</t>
+  </si>
+  <si>
+    <t>Test_Section</t>
+  </si>
+  <si>
+    <t>col-mo-12</t>
+  </si>
+  <si>
+    <t>col-mo-6</t>
+  </si>
+  <si>
+    <t>custom-class</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test_Section_563</t>
+  </si>
+  <si>
+    <t>Unique Id</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Sequence</t>
+  </si>
+  <si>
+    <t>Placeholder Text</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Field Character Limit</t>
+  </si>
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <t>Request API Key</t>
+  </si>
+  <si>
+    <t>Response API Key</t>
+  </si>
+  <si>
+    <t>CSS Class Name</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Modified Uniq Id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Textfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Your Username </t>
+  </si>
+  <si>
+    <t>Username needed</t>
+  </si>
+  <si>
+    <t>http#:/#api-key</t>
+  </si>
+  <si>
+    <t>http#:/#Requestapi-key</t>
+  </si>
+  <si>
+    <t>Responseapi-key</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>col-6</t>
+  </si>
+  <si>
+    <t>Comparison Field</t>
+  </si>
+  <si>
+    <t>test_field122</t>
+  </si>
+  <si>
+    <t>user_name_20</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition ID</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Field Unique Id</t>
+  </si>
+  <si>
+    <t>Comparison Operator</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Modified Condition Id</t>
+  </si>
+  <si>
+    <t>Test_Condition</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
     <t>Atanu_Step_684</t>
   </si>
   <si>
-    <t>Section Number</t>
-  </si>
-  <si>
-    <t>Section Name</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
-    <t>Section Class Name</t>
-  </si>
-  <si>
-    <t>Modified Section Name</t>
-  </si>
-  <si>
-    <t>Test_Section</t>
-  </si>
-  <si>
-    <t>col-mo-12</t>
-  </si>
-  <si>
-    <t>col-mo-6</t>
-  </si>
-  <si>
-    <t>custom-class</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Test_Section_375</t>
-  </si>
-  <si>
-    <t>Unique Id</t>
-  </si>
-  <si>
-    <t>Field Label</t>
-  </si>
-  <si>
-    <t>Field Type</t>
-  </si>
-  <si>
-    <t>Field Sequence</t>
-  </si>
-  <si>
-    <t>Placeholder Text</t>
-  </si>
-  <si>
-    <t>Tooltip</t>
-  </si>
-  <si>
-    <t>Field Character Limit</t>
-  </si>
-  <si>
-    <t>API Key</t>
-  </si>
-  <si>
-    <t>Request API Key</t>
-  </si>
-  <si>
-    <t>Response API Key</t>
-  </si>
-  <si>
-    <t>CSS Class Name</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
-  </si>
-  <si>
-    <t>Modified Uniq Id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Textfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Your Username </t>
-  </si>
-  <si>
-    <t>Username needed</t>
-  </si>
-  <si>
-    <t>http#:/#api-key</t>
-  </si>
-  <si>
-    <t>http#:/#Requestapi-key</t>
-  </si>
-  <si>
-    <t>Responseapi-key</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>col-6</t>
-  </si>
-  <si>
-    <t>Comparison Field</t>
-  </si>
-  <si>
-    <t>test_field122</t>
-  </si>
-  <si>
     <t>user_name_275</t>
   </si>
   <si>
-    <t>Condition Name</t>
-  </si>
-  <si>
-    <t>Condition ID</t>
-  </si>
-  <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Block Name</t>
-  </si>
-  <si>
-    <t>Field Unique Id</t>
-  </si>
-  <si>
-    <t>Comparison Operator</t>
-  </si>
-  <si>
-    <t>Field Values</t>
-  </si>
-  <si>
-    <t>Api Key</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Modified Condition Id</t>
-  </si>
-  <si>
-    <t>Test_Condition</t>
-  </si>
-  <si>
-    <t>Condition1</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -320,73 +328,85 @@
     <t>cutom-10</t>
   </si>
   <si>
-    <t>Atanu_Test_225</t>
-  </si>
-  <si>
-    <t>Atanu_Step_541</t>
-  </si>
-  <si>
-    <t>Test_Section_101</t>
-  </si>
-  <si>
-    <t>user_name_373</t>
-  </si>
-  <si>
-    <t>user_name_188</t>
-  </si>
-  <si>
-    <t>user_name_596</t>
-  </si>
-  <si>
-    <t>user_name_708</t>
-  </si>
-  <si>
-    <t>user_name_308</t>
-  </si>
-  <si>
-    <t>user_name_180</t>
-  </si>
-  <si>
-    <t>user_name_727</t>
-  </si>
-  <si>
-    <t>user_name_706</t>
-  </si>
-  <si>
-    <t>user_name_186</t>
-  </si>
-  <si>
-    <t>user_name_802</t>
-  </si>
-  <si>
-    <t>user_name_463</t>
-  </si>
-  <si>
-    <t>user_name_668</t>
-  </si>
-  <si>
-    <t>user_name_664</t>
-  </si>
-  <si>
-    <t>user_name_283</t>
-  </si>
-  <si>
-    <t>Atanu_Step_740</t>
-  </si>
-  <si>
-    <t>Test_Section_563</t>
-  </si>
-  <si>
-    <t>user_name_692</t>
-  </si>
-  <si>
     <t>Atanu_Test_629</t>
   </si>
   <si>
-    <t>user_name_20</t>
-  </si>
-  <si>
-    <t>Atanu_Step_602</t>
+    <t>Enter a message code</t>
+  </si>
+  <si>
+    <t>Select a message type</t>
+  </si>
+  <si>
+    <t>Enter the message to be displayed</t>
+  </si>
+  <si>
+    <t>Modified Message Code</t>
+  </si>
+  <si>
+    <t>atanu_test_message</t>
+  </si>
+  <si>
+    <t>Static Message Text</t>
+  </si>
+  <si>
+    <t>This message is for testing perpose</t>
+  </si>
+  <si>
+    <t>atanu_test_message_631</t>
+  </si>
+  <si>
+    <t>Name of the workflow</t>
+  </si>
+  <si>
+    <t>Associate Progress Bar</t>
+  </si>
+  <si>
+    <t>Step Count Color</t>
+  </si>
+  <si>
+    <t>Percentage Text Color</t>
+  </si>
+  <si>
+    <t>Progress Bar Color</t>
+  </si>
+  <si>
+    <t>Modified Workflow Name</t>
+  </si>
+  <si>
+    <t>Test_Workflow</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Atanu_Step_393</t>
+  </si>
+  <si>
+    <t>Test_Workflow_319</t>
+  </si>
+  <si>
+    <t>Test_Workflow_610</t>
+  </si>
+  <si>
+    <t>Test_Workflow_315</t>
+  </si>
+  <si>
+    <t>Test_Workflow_491</t>
+  </si>
+  <si>
+    <t>Test_Workflow_196</t>
+  </si>
+  <si>
+    <t>Test_Workflow_347</t>
+  </si>
+  <si>
+    <t>Test_Workflow_515</t>
   </si>
 </sst>
 </file>
@@ -395,9 +415,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -430,7 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -440,24 +459,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,17 +489,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,6 +526,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -515,22 +550,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,187 +587,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,22 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +807,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +844,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -835,21 +870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -863,18 +883,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,28 +904,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,97 +934,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,12 +1406,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.2857142857143" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1548,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1949,7 @@
         <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1937,22 +2024,22 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
@@ -1960,25 +2047,25 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2008,13 +2095,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -2029,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2037,42 +2124,42 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -2081,7 +2168,58 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Block_Details" sheetId="8" r:id="rId8"/>
     <sheet name="Message_Details" sheetId="9" r:id="rId9"/>
     <sheet name="Workflow_Details" sheetId="10" r:id="rId10"/>
+    <sheet name="Modal_Details" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>Email</t>
   </si>
@@ -67,6 +68,9 @@
     <t>atanu</t>
   </si>
   <si>
+    <t>CEE_16959</t>
+  </si>
+  <si>
     <t>Atanu_Test_544</t>
   </si>
   <si>
@@ -115,7 +119,7 @@
     <t>single_column</t>
   </si>
   <si>
-    <t>Atanu_Step_751</t>
+    <t>Atanu_Step_716</t>
   </si>
   <si>
     <t>Section Number</t>
@@ -148,7 +152,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Test_Section_563</t>
+    <t>Test_Section_746</t>
   </si>
   <si>
     <t>Unique Id</t>
@@ -229,7 +233,7 @@
     <t>test_field122</t>
   </si>
   <si>
-    <t>user_name_20</t>
+    <t>user_name_387</t>
   </si>
   <si>
     <t>Condition Name</t>
@@ -316,7 +320,7 @@
     <t>test_field</t>
   </si>
   <si>
-    <t>Atanu_Test_973</t>
+    <t>Atanu_Test_263</t>
   </si>
   <si>
     <t>menu</t>
@@ -352,7 +356,7 @@
     <t>This message is for testing perpose</t>
   </si>
   <si>
-    <t>atanu_test_message_631</t>
+    <t>atanu_test_message_370</t>
   </si>
   <si>
     <t>Name of the workflow</t>
@@ -385,28 +389,79 @@
     <t>Black</t>
   </si>
   <si>
-    <t>Atanu_Step_393</t>
-  </si>
-  <si>
-    <t>Test_Workflow_319</t>
-  </si>
-  <si>
-    <t>Test_Workflow_610</t>
-  </si>
-  <si>
-    <t>Test_Workflow_315</t>
-  </si>
-  <si>
-    <t>Test_Workflow_491</t>
-  </si>
-  <si>
-    <t>Test_Workflow_196</t>
-  </si>
-  <si>
-    <t>Test_Workflow_347</t>
-  </si>
-  <si>
-    <t>Test_Workflow_515</t>
+    <t>Test_Workflow_496</t>
+  </si>
+  <si>
+    <t>Modal Id</t>
+  </si>
+  <si>
+    <t>Modal Type</t>
+  </si>
+  <si>
+    <t>Modal Title</t>
+  </si>
+  <si>
+    <t>Icon For Modal Close Button</t>
+  </si>
+  <si>
+    <t>Modal Message Text</t>
+  </si>
+  <si>
+    <t>Enter value for input form fields</t>
+  </si>
+  <si>
+    <t>Button Label</t>
+  </si>
+  <si>
+    <t>Button Type</t>
+  </si>
+  <si>
+    <t>Link Event</t>
+  </si>
+  <si>
+    <t>Modified Modal Id</t>
+  </si>
+  <si>
+    <t>Test_Modal</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>testModal</t>
+  </si>
+  <si>
+    <t>closeicon</t>
+  </si>
+  <si>
+    <t>Warning!! This is for testing purpose</t>
+  </si>
+  <si>
+    <t>btnLabel</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Test_Modal_744</t>
+  </si>
+  <si>
+    <t>Test_Modal_607</t>
+  </si>
+  <si>
+    <t>Test_Modal_147</t>
+  </si>
+  <si>
+    <t>Test_Modal_432</t>
+  </si>
+  <si>
+    <t>Test_Modal_594</t>
+  </si>
+  <si>
+    <t>Test_Modal_847</t>
+  </si>
+  <si>
+    <t>Test_Modal_368</t>
   </si>
 </sst>
 </file>
@@ -414,9 +469,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -451,7 +506,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,28 +545,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +573,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -526,38 +589,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +605,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +642,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,163 +714,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +833,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,26 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -878,153 +922,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,7 +1466,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1426,45 +1481,135 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.8571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.1428571428571" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1624,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1549,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1582,16 +1727,16 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -1600,42 +1745,42 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1747,22 +1892,22 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1771,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -1779,28 +1924,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1842,49 +1987,49 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -1893,63 +2038,63 @@
         <v>7</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1986,86 +2131,86 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2095,19 +2240,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2116,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2124,25 +2269,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2150,16 +2295,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -2168,7 +2313,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2196,30 +2341,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Message_Details" sheetId="9" r:id="rId9"/>
     <sheet name="Workflow_Details" sheetId="10" r:id="rId10"/>
     <sheet name="Modal_Details" sheetId="11" r:id="rId11"/>
+    <sheet name="Validation_Message_Details" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
   <si>
     <t>Email</t>
   </si>
@@ -356,7 +357,13 @@
     <t>This message is for testing perpose</t>
   </si>
   <si>
-    <t>atanu_test_message_370</t>
+    <t>atanu_test_message_240</t>
+  </si>
+  <si>
+    <t>Dynamic Message Text</t>
+  </si>
+  <si>
+    <t>atanu_test_message_788</t>
   </si>
   <si>
     <t>Name of the workflow</t>
@@ -443,25 +450,73 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Test_Modal_744</t>
-  </si>
-  <si>
-    <t>Test_Modal_607</t>
-  </si>
-  <si>
-    <t>Test_Modal_147</t>
-  </si>
-  <si>
-    <t>Test_Modal_432</t>
-  </si>
-  <si>
-    <t>Test_Modal_594</t>
-  </si>
-  <si>
-    <t>Test_Modal_847</t>
-  </si>
-  <si>
     <t>Test_Modal_368</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Validation Message Type</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Associate Message Code</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Conditional ID</t>
+  </si>
+  <si>
+    <t>CompareBy</t>
+  </si>
+  <si>
+    <t>Condition Query</t>
+  </si>
+  <si>
+    <t>Expected Validation Message Type</t>
+  </si>
+  <si>
+    <t>Test_Validation</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Test_Validation_737</t>
+  </si>
+  <si>
+    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Test_Validation_705</t>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>##apikey</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>( Condition3 )</t>
+  </si>
+  <si>
+    <t>Test_Validation_31</t>
   </si>
 </sst>
 </file>
@@ -505,15 +560,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,15 +584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +651,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -611,27 +681,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -642,13 +697,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,151 +841,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,15 +888,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -856,6 +902,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,15 +971,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -933,153 +979,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,45 +1536,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1588,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1553,63 +1608,203 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.4285714285714" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="18.7142857142857" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="17.5714285714286" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="22.2857142857143" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="18.4285714285714" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.5714285714286" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="19.1428571428571" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="77.2857142857143" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
         <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:14">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1819,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1708,7 +1903,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2325,18 +2520,18 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.2857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="22.2857142857143" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="22.5714285714286" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="36.7142857142857" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2367,6 +2562,20 @@
         <v>110</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7665" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12495" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>atanu</t>
   </si>
   <si>
-    <t>CEE_16959</t>
-  </si>
-  <si>
-    <t>Atanu_Test_544</t>
+    <t>Atanu_Test_318</t>
+  </si>
+  <si>
+    <t>Atanu_Test_387</t>
   </si>
   <si>
     <t>Application Step Name</t>
@@ -120,390 +120,393 @@
     <t>single_column</t>
   </si>
   <si>
+    <t>Atanu_Step_396</t>
+  </si>
+  <si>
+    <t>Section Number</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>Section Class Name</t>
+  </si>
+  <si>
+    <t>Modified Section Name</t>
+  </si>
+  <si>
+    <t>Test_Section</t>
+  </si>
+  <si>
+    <t>col-mo-12</t>
+  </si>
+  <si>
+    <t>col-mo-6</t>
+  </si>
+  <si>
+    <t>custom-class</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test_Section_746</t>
+  </si>
+  <si>
+    <t>Unique Id</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Sequence</t>
+  </si>
+  <si>
+    <t>Placeholder Text</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Field Character Limit</t>
+  </si>
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <t>Request API Key</t>
+  </si>
+  <si>
+    <t>Response API Key</t>
+  </si>
+  <si>
+    <t>CSS Class Name</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Modified Uniq Id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Textfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Your Username </t>
+  </si>
+  <si>
+    <t>Username needed</t>
+  </si>
+  <si>
+    <t>http#:/#api-key</t>
+  </si>
+  <si>
+    <t>http#:/#Requestapi-key</t>
+  </si>
+  <si>
+    <t>Responseapi-key</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>col-6</t>
+  </si>
+  <si>
+    <t>Comparison Field</t>
+  </si>
+  <si>
+    <t>test_field122</t>
+  </si>
+  <si>
+    <t>user_name_387</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition ID</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Field Unique Id</t>
+  </si>
+  <si>
+    <t>Comparison Operator</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Modified Condition Id</t>
+  </si>
+  <si>
+    <t>Test_Condition</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>Atanu_Step_684</t>
+  </si>
+  <si>
+    <t>user_name_275</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>##http/api</t>
+  </si>
+  <si>
+    <t>( Condition1 )</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>( Condition2 )</t>
+  </si>
+  <si>
+    <t>Application Block Name</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified Block Name</t>
+  </si>
+  <si>
+    <t>genericBlock</t>
+  </si>
+  <si>
+    <t>This is generic block type desc</t>
+  </si>
+  <si>
+    <t>col-mo-10</t>
+  </si>
+  <si>
+    <t>cutom-10-name</t>
+  </si>
+  <si>
+    <t>test_field</t>
+  </si>
+  <si>
+    <t>Atanu_Test_263</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>This is menu block type desc</t>
+  </si>
+  <si>
+    <t>cutom-10</t>
+  </si>
+  <si>
+    <t>Atanu_Test_629</t>
+  </si>
+  <si>
+    <t>Enter a message code</t>
+  </si>
+  <si>
+    <t>Select a message type</t>
+  </si>
+  <si>
+    <t>Enter the message to be displayed</t>
+  </si>
+  <si>
+    <t>Modified Message Code</t>
+  </si>
+  <si>
+    <t>atanu_test_message</t>
+  </si>
+  <si>
+    <t>Static Message Text</t>
+  </si>
+  <si>
+    <t>This message is for testing perpose</t>
+  </si>
+  <si>
+    <t>atanu_test_message_260</t>
+  </si>
+  <si>
+    <t>Dynamic Message Text</t>
+  </si>
+  <si>
+    <t>atanu_test_message_331</t>
+  </si>
+  <si>
+    <t>Name of the workflow</t>
+  </si>
+  <si>
+    <t>Associate Progress Bar</t>
+  </si>
+  <si>
+    <t>Step Count Color</t>
+  </si>
+  <si>
+    <t>Percentage Text Color</t>
+  </si>
+  <si>
+    <t>Progress Bar Color</t>
+  </si>
+  <si>
+    <t>Modified Workflow Name</t>
+  </si>
+  <si>
+    <t>Test_Workflow</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Test_Workflow_496</t>
+  </si>
+  <si>
+    <t>Modal Id</t>
+  </si>
+  <si>
+    <t>Modal Type</t>
+  </si>
+  <si>
+    <t>Modal Title</t>
+  </si>
+  <si>
+    <t>Icon For Modal Close Button</t>
+  </si>
+  <si>
+    <t>Modal Message Text</t>
+  </si>
+  <si>
+    <t>Enter value for input form fields</t>
+  </si>
+  <si>
+    <t>Button Label</t>
+  </si>
+  <si>
+    <t>Button Type</t>
+  </si>
+  <si>
+    <t>Link Event</t>
+  </si>
+  <si>
+    <t>Modified Modal Id</t>
+  </si>
+  <si>
+    <t>Test_Modal</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>testModal</t>
+  </si>
+  <si>
+    <t>closeicon</t>
+  </si>
+  <si>
+    <t>Warning!! This is for testing purpose</t>
+  </si>
+  <si>
+    <t>btnLabel</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Test_Modal_368</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Validation Message Type</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Associate Message Code</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Conditional ID</t>
+  </si>
+  <si>
+    <t>CompareBy</t>
+  </si>
+  <si>
+    <t>Condition Query</t>
+  </si>
+  <si>
+    <t>Expected Validation Message Type</t>
+  </si>
+  <si>
+    <t>Test_Validation</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Test_Validation_737</t>
+  </si>
+  <si>
+    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Test_Validation_22</t>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
     <t>Atanu_Step_716</t>
   </si>
   <si>
-    <t>Section Number</t>
-  </si>
-  <si>
-    <t>Section Name</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
-    <t>Section Class Name</t>
-  </si>
-  <si>
-    <t>Modified Section Name</t>
-  </si>
-  <si>
-    <t>Test_Section</t>
-  </si>
-  <si>
-    <t>col-mo-12</t>
-  </si>
-  <si>
-    <t>col-mo-6</t>
-  </si>
-  <si>
-    <t>custom-class</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Test_Section_746</t>
-  </si>
-  <si>
-    <t>Unique Id</t>
-  </si>
-  <si>
-    <t>Field Label</t>
-  </si>
-  <si>
-    <t>Field Type</t>
-  </si>
-  <si>
-    <t>Field Sequence</t>
-  </si>
-  <si>
-    <t>Placeholder Text</t>
-  </si>
-  <si>
-    <t>Tooltip</t>
-  </si>
-  <si>
-    <t>Field Character Limit</t>
-  </si>
-  <si>
-    <t>API Key</t>
-  </si>
-  <si>
-    <t>Request API Key</t>
-  </si>
-  <si>
-    <t>Response API Key</t>
-  </si>
-  <si>
-    <t>CSS Class Name</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
-  </si>
-  <si>
-    <t>Modified Uniq Id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Textfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Your Username </t>
-  </si>
-  <si>
-    <t>Username needed</t>
-  </si>
-  <si>
-    <t>http#:/#api-key</t>
-  </si>
-  <si>
-    <t>http#:/#Requestapi-key</t>
-  </si>
-  <si>
-    <t>Responseapi-key</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>col-6</t>
-  </si>
-  <si>
-    <t>Comparison Field</t>
-  </si>
-  <si>
-    <t>test_field122</t>
-  </si>
-  <si>
-    <t>user_name_387</t>
-  </si>
-  <si>
-    <t>Condition Name</t>
-  </si>
-  <si>
-    <t>Condition ID</t>
-  </si>
-  <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Block Name</t>
-  </si>
-  <si>
-    <t>Field Unique Id</t>
-  </si>
-  <si>
-    <t>Comparison Operator</t>
-  </si>
-  <si>
-    <t>Field Values</t>
-  </si>
-  <si>
-    <t>Api Key</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Modified Condition Id</t>
-  </si>
-  <si>
-    <t>Test_Condition</t>
-  </si>
-  <si>
-    <t>Condition1</t>
-  </si>
-  <si>
-    <t>Atanu_Step_684</t>
-  </si>
-  <si>
-    <t>user_name_275</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>##http/api</t>
-  </si>
-  <si>
-    <t>( Condition1 )</t>
-  </si>
-  <si>
-    <t>Condition2</t>
-  </si>
-  <si>
-    <t>( Condition2 )</t>
-  </si>
-  <si>
-    <t>Application Block Name</t>
-  </si>
-  <si>
-    <t>Block Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Modified Block Name</t>
-  </si>
-  <si>
-    <t>genericBlock</t>
-  </si>
-  <si>
-    <t>This is generic block type desc</t>
-  </si>
-  <si>
-    <t>col-mo-10</t>
-  </si>
-  <si>
-    <t>cutom-10-name</t>
-  </si>
-  <si>
-    <t>test_field</t>
-  </si>
-  <si>
-    <t>Atanu_Test_263</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>This is menu block type desc</t>
-  </si>
-  <si>
-    <t>cutom-10</t>
-  </si>
-  <si>
-    <t>Atanu_Test_629</t>
-  </si>
-  <si>
-    <t>Enter a message code</t>
-  </si>
-  <si>
-    <t>Select a message type</t>
-  </si>
-  <si>
-    <t>Enter the message to be displayed</t>
-  </si>
-  <si>
-    <t>Modified Message Code</t>
-  </si>
-  <si>
-    <t>atanu_test_message</t>
-  </si>
-  <si>
-    <t>Static Message Text</t>
-  </si>
-  <si>
-    <t>This message is for testing perpose</t>
-  </si>
-  <si>
-    <t>atanu_test_message_240</t>
-  </si>
-  <si>
-    <t>Dynamic Message Text</t>
-  </si>
-  <si>
-    <t>atanu_test_message_788</t>
-  </si>
-  <si>
-    <t>Name of the workflow</t>
-  </si>
-  <si>
-    <t>Associate Progress Bar</t>
-  </si>
-  <si>
-    <t>Step Count Color</t>
-  </si>
-  <si>
-    <t>Percentage Text Color</t>
-  </si>
-  <si>
-    <t>Progress Bar Color</t>
-  </si>
-  <si>
-    <t>Modified Workflow Name</t>
-  </si>
-  <si>
-    <t>Test_Workflow</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Test_Workflow_496</t>
-  </si>
-  <si>
-    <t>Modal Id</t>
-  </si>
-  <si>
-    <t>Modal Type</t>
-  </si>
-  <si>
-    <t>Modal Title</t>
-  </si>
-  <si>
-    <t>Icon For Modal Close Button</t>
-  </si>
-  <si>
-    <t>Modal Message Text</t>
-  </si>
-  <si>
-    <t>Enter value for input form fields</t>
-  </si>
-  <si>
-    <t>Button Label</t>
-  </si>
-  <si>
-    <t>Button Type</t>
-  </si>
-  <si>
-    <t>Link Event</t>
-  </si>
-  <si>
-    <t>Modified Modal Id</t>
-  </si>
-  <si>
-    <t>Test_Modal</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>testModal</t>
-  </si>
-  <si>
-    <t>closeicon</t>
-  </si>
-  <si>
-    <t>Warning!! This is for testing purpose</t>
-  </si>
-  <si>
-    <t>btnLabel</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Test_Modal_368</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Validation Message Type</t>
-  </si>
-  <si>
-    <t>Display Type</t>
-  </si>
-  <si>
-    <t>Associate Message Code</t>
-  </si>
-  <si>
-    <t>Modified Name</t>
-  </si>
-  <si>
-    <t>Conditional ID</t>
-  </si>
-  <si>
-    <t>CompareBy</t>
-  </si>
-  <si>
-    <t>Condition Query</t>
-  </si>
-  <si>
-    <t>Expected Validation Message Type</t>
-  </si>
-  <si>
-    <t>Test_Validation</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Inline</t>
-  </si>
-  <si>
-    <t>Test_Validation_737</t>
-  </si>
-  <si>
-    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>Test_Validation_705</t>
-  </si>
-  <si>
-    <t>Condition3</t>
-  </si>
-  <si>
     <t>!=</t>
   </si>
   <si>
@@ -514,9 +517,6 @@
   </si>
   <si>
     <t>( Condition3 )</t>
-  </si>
-  <si>
-    <t>Test_Validation_31</t>
   </si>
 </sst>
 </file>
@@ -525,9 +525,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -560,6 +560,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -569,29 +576,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +643,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,14 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,43 +697,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,139 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,11 +906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,17 +960,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,49 +993,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,94 +1047,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1490,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1527,11 +1527,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.4285714285714" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="23.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="22.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1594,16 +1594,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.8571428571429" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.5714285714286" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.7142857142857" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5714285714286" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.1428571428571" collapsed="true"/>
+    <col min="1" max="1" width="16.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.1428571428571" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1678,25 +1678,25 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.4285714285714" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="18.7142857142857" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.5714285714286" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="22.2857142857143" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="18.4285714285714" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.5714285714286" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="19.1428571428571" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="77.2857142857143" collapsed="false"/>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="77.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1777,31 +1777,31 @@
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
         <v>155</v>
@@ -1819,17 +1819,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="34.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
@@ -1903,21 +1903,21 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
@@ -1998,7 +1998,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2006,8 +2006,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:1">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" ht="17.25" spans="1:1">
       <c r="A3" s="3"/>
@@ -2074,15 +2076,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
@@ -2160,24 +2162,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2312,16 +2314,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.5714285714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.7142857142857" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="31.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2425,12 +2427,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.4285714285714" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.8571428571429" collapsed="true"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.8571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2528,10 +2530,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.2857142857143" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.5714285714286" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="36.7142857142857" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="false"/>
+    <col min="1" max="1" width="22.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.8571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
   <si>
     <t>Email</t>
   </si>
@@ -264,7 +264,7 @@
     <t>Query</t>
   </si>
   <si>
-    <t>Modified Condition Id</t>
+    <t>Modified Condition Name</t>
   </si>
   <si>
     <t>Test_Condition</t>
@@ -273,24 +273,30 @@
     <t>Condition1</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>##http/api</t>
+  </si>
+  <si>
+    <t>( Condition1 )</t>
+  </si>
+  <si>
+    <t>Test_Condition_479</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
     <t>Atanu_Step_684</t>
   </si>
   <si>
     <t>user_name_275</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>##http/api</t>
-  </si>
-  <si>
-    <t>( Condition1 )</t>
-  </si>
-  <si>
-    <t>Condition2</t>
-  </si>
-  <si>
     <t>( Condition2 )</t>
   </si>
   <si>
@@ -507,9 +513,6 @@
     <t>Atanu_Step_716</t>
   </si>
   <si>
-    <t>!=</t>
-  </si>
-  <si>
     <t>##apikey</t>
   </si>
   <si>
@@ -517,6 +520,39 @@
   </si>
   <si>
     <t>( Condition3 )</t>
+  </si>
+  <si>
+    <t>Test_Condition_540</t>
+  </si>
+  <si>
+    <t>Atanu_Step_400</t>
+  </si>
+  <si>
+    <t>Test_Section_357</t>
+  </si>
+  <si>
+    <t>user_name_289</t>
+  </si>
+  <si>
+    <t>Atanu_Test_965</t>
+  </si>
+  <si>
+    <t>user_name_674</t>
+  </si>
+  <si>
+    <t>atanu_test_message_166</t>
+  </si>
+  <si>
+    <t>Test_Workflow_472</t>
+  </si>
+  <si>
+    <t>Test_Modal_55</t>
+  </si>
+  <si>
+    <t>Test_Validation_368</t>
+  </si>
+  <si>
+    <t>Test_Condition_530</t>
   </si>
 </sst>
 </file>
@@ -526,8 +562,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -560,8 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,21 +606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,14 +621,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -613,7 +628,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,9 +663,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,10 +688,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,29 +718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,19 +733,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,163 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,21 +924,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,6 +942,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,6 +970,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -962,15 +1016,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -979,32 +1024,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,127 +1050,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1526,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1527,54 +1563,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="22.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1594,77 +1630,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.8571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1684,39 +1720,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="18.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="77.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="18.7142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.5714285714286" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.1428571428571" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="77.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>72</v>
@@ -1734,77 +1770,77 @@
         <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:14">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1824,12 +1860,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="34.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
@@ -1903,21 +1939,21 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="18.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
@@ -1975,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2034,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2076,15 +2112,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
@@ -2142,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2162,24 +2198,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2291,7 +2327,7 @@
         <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2308,22 +2344,22 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.7142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="31.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2358,7 +2394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2366,22 +2402,25 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>86</v>
+      <c r="J2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
@@ -2392,22 +2431,22 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2427,23 +2466,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.4285714285714" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -2458,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2466,25 +2505,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2492,16 +2531,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -2510,7 +2549,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2530,52 +2569,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Workflow_Details" sheetId="10" r:id="rId10"/>
     <sheet name="Modal_Details" sheetId="11" r:id="rId11"/>
     <sheet name="Validation_Message_Details" sheetId="12" r:id="rId12"/>
+    <sheet name="Event_Details" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="219">
   <si>
     <t>Email</t>
   </si>
@@ -69,450 +70,468 @@
     <t>atanu</t>
   </si>
   <si>
+    <t>CEE_16616</t>
+  </si>
+  <si>
+    <t>Application Step Name</t>
+  </si>
+  <si>
+    <t>Step API URL</t>
+  </si>
+  <si>
+    <t>Bootstrap Class Name</t>
+  </si>
+  <si>
+    <t>Custom Class Name</t>
+  </si>
+  <si>
+    <t>Step Condition</t>
+  </si>
+  <si>
+    <t>Step Event</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t>Template Id</t>
+  </si>
+  <si>
+    <t>Modified Step Name</t>
+  </si>
+  <si>
+    <t>Atanu_Step</t>
+  </si>
+  <si>
+    <t>https://www.api.url</t>
+  </si>
+  <si>
+    <t>col-md-12</t>
+  </si>
+  <si>
+    <t>inner-block-panel</t>
+  </si>
+  <si>
+    <t>legal_name_value_237864884_generated_name_8ac09bdc-34ac-42d8-be46-f0b45f1d8732</t>
+  </si>
+  <si>
+    <t>pending_application_modal_open_30116_1</t>
+  </si>
+  <si>
+    <t>Original Field</t>
+  </si>
+  <si>
+    <t>test _field_123</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>single_column</t>
+  </si>
+  <si>
+    <t>Atanu_Step_400</t>
+  </si>
+  <si>
     <t>Atanu_Test_318</t>
   </si>
   <si>
-    <t>Atanu_Test_387</t>
-  </si>
-  <si>
-    <t>Application Step Name</t>
-  </si>
-  <si>
-    <t>Step API URL</t>
-  </si>
-  <si>
-    <t>Bootstrap Class Name</t>
-  </si>
-  <si>
-    <t>Custom Class Name</t>
-  </si>
-  <si>
-    <t>Device Type</t>
-  </si>
-  <si>
-    <t>Template Id</t>
-  </si>
-  <si>
-    <t>Modified Step Name</t>
-  </si>
-  <si>
-    <t>Atanu_Step</t>
-  </si>
-  <si>
-    <t>https://www.api.url</t>
-  </si>
-  <si>
-    <t>col-md-12</t>
-  </si>
-  <si>
-    <t>inner-block-panel</t>
-  </si>
-  <si>
-    <t>Original Field</t>
-  </si>
-  <si>
-    <t>test _field_123</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>single_column</t>
+    <t>Section Number</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>Section Class Name</t>
+  </si>
+  <si>
+    <t>Modified Section Name</t>
+  </si>
+  <si>
+    <t>Test_Section</t>
+  </si>
+  <si>
+    <t>col-mo-12</t>
+  </si>
+  <si>
+    <t>col-mo-6</t>
+  </si>
+  <si>
+    <t>custom-class</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test_Section_357</t>
+  </si>
+  <si>
+    <t>Unique Id</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Sequence</t>
+  </si>
+  <si>
+    <t>Placeholder Text</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Field Character Limit</t>
+  </si>
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <t>Request API Key</t>
+  </si>
+  <si>
+    <t>Response API Key</t>
+  </si>
+  <si>
+    <t>CSS Class Name</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Modified Uniq Id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Textfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Your Username </t>
+  </si>
+  <si>
+    <t>Username needed</t>
+  </si>
+  <si>
+    <t>http#:/#api-key</t>
+  </si>
+  <si>
+    <t>http#:/#Requestapi-key</t>
+  </si>
+  <si>
+    <t>Responseapi-key</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>col-6</t>
+  </si>
+  <si>
+    <t>Comparison Field</t>
+  </si>
+  <si>
+    <t>test_field122</t>
+  </si>
+  <si>
+    <t>user_name_674</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition ID</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Field Unique Id</t>
+  </si>
+  <si>
+    <t>Comparison Operator</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Modified Condition Name</t>
+  </si>
+  <si>
+    <t>Test_Condition</t>
+  </si>
+  <si>
+    <t>Condition1</t>
   </si>
   <si>
     <t>Atanu_Step_396</t>
   </si>
   <si>
-    <t>Section Number</t>
-  </si>
-  <si>
-    <t>Section Name</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
-    <t>Section Class Name</t>
-  </si>
-  <si>
-    <t>Modified Section Name</t>
-  </si>
-  <si>
-    <t>Test_Section</t>
-  </si>
-  <si>
-    <t>col-mo-12</t>
-  </si>
-  <si>
-    <t>col-mo-6</t>
-  </si>
-  <si>
-    <t>custom-class</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Test_Section_746</t>
-  </si>
-  <si>
-    <t>Unique Id</t>
-  </si>
-  <si>
-    <t>Field Label</t>
-  </si>
-  <si>
-    <t>Field Type</t>
-  </si>
-  <si>
-    <t>Field Sequence</t>
-  </si>
-  <si>
-    <t>Placeholder Text</t>
-  </si>
-  <si>
-    <t>Tooltip</t>
-  </si>
-  <si>
-    <t>Field Character Limit</t>
-  </si>
-  <si>
-    <t>API Key</t>
-  </si>
-  <si>
-    <t>Request API Key</t>
-  </si>
-  <si>
-    <t>Response API Key</t>
-  </si>
-  <si>
-    <t>CSS Class Name</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
-  </si>
-  <si>
-    <t>Modified Uniq Id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Textfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Your Username </t>
-  </si>
-  <si>
-    <t>Username needed</t>
-  </si>
-  <si>
-    <t>http#:/#api-key</t>
-  </si>
-  <si>
-    <t>http#:/#Requestapi-key</t>
-  </si>
-  <si>
-    <t>Responseapi-key</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>col-6</t>
-  </si>
-  <si>
-    <t>Comparison Field</t>
-  </si>
-  <si>
-    <t>test_field122</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>##http/api</t>
+  </si>
+  <si>
+    <t>( Condition1 )</t>
+  </si>
+  <si>
+    <t>Test_Condition_530</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>Atanu_Step_684</t>
+  </si>
+  <si>
+    <t>user_name_275</t>
+  </si>
+  <si>
+    <t>( Condition2 )</t>
+  </si>
+  <si>
+    <t>Application Block Name</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified Block Name</t>
+  </si>
+  <si>
+    <t>genericBlock</t>
+  </si>
+  <si>
+    <t>This is generic block type desc</t>
+  </si>
+  <si>
+    <t>col-mo-10</t>
+  </si>
+  <si>
+    <t>cutom-10-name</t>
+  </si>
+  <si>
+    <t>test_field</t>
+  </si>
+  <si>
+    <t>Atanu_Test_965</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>This is menu block type desc</t>
+  </si>
+  <si>
+    <t>cutom-10</t>
+  </si>
+  <si>
+    <t>Atanu_Test_629</t>
+  </si>
+  <si>
+    <t>Enter a message code</t>
+  </si>
+  <si>
+    <t>Select a message type</t>
+  </si>
+  <si>
+    <t>Enter the message to be displayed</t>
+  </si>
+  <si>
+    <t>Modified Message Code</t>
+  </si>
+  <si>
+    <t>atanu_test_message</t>
+  </si>
+  <si>
+    <t>Static Message Text</t>
+  </si>
+  <si>
+    <t>This message is for testing perpose</t>
+  </si>
+  <si>
+    <t>atanu_test_message_166</t>
+  </si>
+  <si>
+    <t>Dynamic Message Text</t>
+  </si>
+  <si>
+    <t>atanu_test_message_331</t>
+  </si>
+  <si>
+    <t>Name of the workflow</t>
+  </si>
+  <si>
+    <t>Associate Progress Bar</t>
+  </si>
+  <si>
+    <t>Step Count Color</t>
+  </si>
+  <si>
+    <t>Percentage Text Color</t>
+  </si>
+  <si>
+    <t>Progress Bar Color</t>
+  </si>
+  <si>
+    <t>Modified Workflow Name</t>
+  </si>
+  <si>
+    <t>Test_Workflow</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Test_Workflow_472</t>
+  </si>
+  <si>
+    <t>Modal Id</t>
+  </si>
+  <si>
+    <t>Modal Type</t>
+  </si>
+  <si>
+    <t>Modal Title</t>
+  </si>
+  <si>
+    <t>Icon For Modal Close Button</t>
+  </si>
+  <si>
+    <t>Modal Message Text</t>
+  </si>
+  <si>
+    <t>Enter value for input form fields</t>
+  </si>
+  <si>
+    <t>Button Label</t>
+  </si>
+  <si>
+    <t>Button Type</t>
+  </si>
+  <si>
+    <t>Link Event</t>
+  </si>
+  <si>
+    <t>Modified Modal Id</t>
+  </si>
+  <si>
+    <t>Test_Modal</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>testModal</t>
+  </si>
+  <si>
+    <t>closeicon</t>
+  </si>
+  <si>
+    <t>Warning!! This is for testing purpose</t>
+  </si>
+  <si>
+    <t>btnLabel</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Test_Modal_55</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Validation Message Type</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Associate Message Code</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Conditional ID</t>
+  </si>
+  <si>
+    <t>CompareBy</t>
+  </si>
+  <si>
+    <t>Condition Query</t>
+  </si>
+  <si>
+    <t>Expected Validation Message Type</t>
+  </si>
+  <si>
+    <t>Test_Validation</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Test_Validation_368</t>
+  </si>
+  <si>
+    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Test_Validation_22</t>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>Atanu_Step_716</t>
   </si>
   <si>
     <t>user_name_387</t>
   </si>
   <si>
-    <t>Condition Name</t>
-  </si>
-  <si>
-    <t>Condition ID</t>
-  </si>
-  <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Block Name</t>
-  </si>
-  <si>
-    <t>Field Unique Id</t>
-  </si>
-  <si>
-    <t>Comparison Operator</t>
-  </si>
-  <si>
-    <t>Field Values</t>
-  </si>
-  <si>
-    <t>Api Key</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Modified Condition Name</t>
-  </si>
-  <si>
-    <t>Test_Condition</t>
-  </si>
-  <si>
-    <t>Condition1</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>##http/api</t>
-  </si>
-  <si>
-    <t>( Condition1 )</t>
-  </si>
-  <si>
-    <t>Test_Condition_479</t>
-  </si>
-  <si>
-    <t>Condition2</t>
-  </si>
-  <si>
-    <t>Atanu_Step_684</t>
-  </si>
-  <si>
-    <t>user_name_275</t>
-  </si>
-  <si>
-    <t>( Condition2 )</t>
-  </si>
-  <si>
-    <t>Application Block Name</t>
-  </si>
-  <si>
-    <t>Block Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Modified Block Name</t>
-  </si>
-  <si>
-    <t>genericBlock</t>
-  </si>
-  <si>
-    <t>This is generic block type desc</t>
-  </si>
-  <si>
-    <t>col-mo-10</t>
-  </si>
-  <si>
-    <t>cutom-10-name</t>
-  </si>
-  <si>
-    <t>test_field</t>
-  </si>
-  <si>
-    <t>Atanu_Test_263</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>This is menu block type desc</t>
-  </si>
-  <si>
-    <t>cutom-10</t>
-  </si>
-  <si>
-    <t>Atanu_Test_629</t>
-  </si>
-  <si>
-    <t>Enter a message code</t>
-  </si>
-  <si>
-    <t>Select a message type</t>
-  </si>
-  <si>
-    <t>Enter the message to be displayed</t>
-  </si>
-  <si>
-    <t>Modified Message Code</t>
-  </si>
-  <si>
-    <t>atanu_test_message</t>
-  </si>
-  <si>
-    <t>Static Message Text</t>
-  </si>
-  <si>
-    <t>This message is for testing perpose</t>
-  </si>
-  <si>
-    <t>atanu_test_message_260</t>
-  </si>
-  <si>
-    <t>Dynamic Message Text</t>
-  </si>
-  <si>
-    <t>atanu_test_message_331</t>
-  </si>
-  <si>
-    <t>Name of the workflow</t>
-  </si>
-  <si>
-    <t>Associate Progress Bar</t>
-  </si>
-  <si>
-    <t>Step Count Color</t>
-  </si>
-  <si>
-    <t>Percentage Text Color</t>
-  </si>
-  <si>
-    <t>Progress Bar Color</t>
-  </si>
-  <si>
-    <t>Modified Workflow Name</t>
-  </si>
-  <si>
-    <t>Test_Workflow</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Test_Workflow_496</t>
-  </si>
-  <si>
-    <t>Modal Id</t>
-  </si>
-  <si>
-    <t>Modal Type</t>
-  </si>
-  <si>
-    <t>Modal Title</t>
-  </si>
-  <si>
-    <t>Icon For Modal Close Button</t>
-  </si>
-  <si>
-    <t>Modal Message Text</t>
-  </si>
-  <si>
-    <t>Enter value for input form fields</t>
-  </si>
-  <si>
-    <t>Button Label</t>
-  </si>
-  <si>
-    <t>Button Type</t>
-  </si>
-  <si>
-    <t>Link Event</t>
-  </si>
-  <si>
-    <t>Modified Modal Id</t>
-  </si>
-  <si>
-    <t>Test_Modal</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>testModal</t>
-  </si>
-  <si>
-    <t>closeicon</t>
-  </si>
-  <si>
-    <t>Warning!! This is for testing purpose</t>
-  </si>
-  <si>
-    <t>btnLabel</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Test_Modal_368</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Validation Message Type</t>
-  </si>
-  <si>
-    <t>Display Type</t>
-  </si>
-  <si>
-    <t>Associate Message Code</t>
-  </si>
-  <si>
-    <t>Modified Name</t>
-  </si>
-  <si>
-    <t>Conditional ID</t>
-  </si>
-  <si>
-    <t>CompareBy</t>
-  </si>
-  <si>
-    <t>Condition Query</t>
-  </si>
-  <si>
-    <t>Expected Validation Message Type</t>
-  </si>
-  <si>
-    <t>Test_Validation</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Inline</t>
-  </si>
-  <si>
-    <t>Test_Validation_737</t>
-  </si>
-  <si>
-    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>Test_Validation_22</t>
-  </si>
-  <si>
-    <t>Condition3</t>
-  </si>
-  <si>
-    <t>Atanu_Step_716</t>
-  </si>
-  <si>
     <t>##apikey</t>
   </si>
   <si>
@@ -522,37 +541,148 @@
     <t>( Condition3 )</t>
   </si>
   <si>
-    <t>Test_Condition_540</t>
-  </si>
-  <si>
-    <t>Atanu_Step_400</t>
-  </si>
-  <si>
-    <t>Test_Section_357</t>
-  </si>
-  <si>
-    <t>user_name_289</t>
-  </si>
-  <si>
-    <t>Atanu_Test_965</t>
-  </si>
-  <si>
-    <t>user_name_674</t>
-  </si>
-  <si>
-    <t>atanu_test_message_166</t>
-  </si>
-  <si>
-    <t>Test_Workflow_472</t>
-  </si>
-  <si>
-    <t>Test_Modal_55</t>
-  </si>
-  <si>
-    <t>Test_Validation_368</t>
-  </si>
-  <si>
-    <t>Test_Condition_530</t>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Modified Event Name</t>
+  </si>
+  <si>
+    <t>Next Event Id</t>
+  </si>
+  <si>
+    <t>Library Id</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Display Step</t>
+  </si>
+  <si>
+    <t>Display Workflow</t>
+  </si>
+  <si>
+    <t>Event Handler</t>
+  </si>
+  <si>
+    <t>Field Value</t>
+  </si>
+  <si>
+    <t>Handler Name</t>
+  </si>
+  <si>
+    <t>CallBck API key</t>
+  </si>
+  <si>
+    <t>Header Status Code</t>
+  </si>
+  <si>
+    <t>CallBck Next Event ID</t>
+  </si>
+  <si>
+    <t>Message Code</t>
+  </si>
+  <si>
+    <t>Response Key</t>
+  </si>
+  <si>
+    <t>Response Value</t>
+  </si>
+  <si>
+    <t>Checked event</t>
+  </si>
+  <si>
+    <t>Test_Event</t>
+  </si>
+  <si>
+    <t>Test_Event_675</t>
+  </si>
+  <si>
+    <t>My_TSA_Pre_Dashboard_26442</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Enrollment Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Enrollment Get Started</t>
+  </si>
+  <si>
+    <t>my_profile_section_title_30152</t>
+  </si>
+  <si>
+    <t>Not Equal</t>
+  </si>
+  <si>
+    <t>test_001</t>
+  </si>
+  <si>
+    <t>sessiontimeout</t>
+  </si>
+  <si>
+    <t>( Condition 1 )</t>
+  </si>
+  <si>
+    <t>RowIdentifierKey</t>
+  </si>
+  <si>
+    <t>row_234</t>
+  </si>
+  <si>
+    <t>API response</t>
+  </si>
+  <si>
+    <t>apikey123</t>
+  </si>
+  <si>
+    <t>API response header status 200(Success Response)</t>
+  </si>
+  <si>
+    <t>pending_application_modal_open_30116</t>
+  </si>
+  <si>
+    <t>Confirm email</t>
+  </si>
+  <si>
+    <t>responsekey1</t>
+  </si>
+  <si>
+    <t>resvalue1</t>
+  </si>
+  <si>
+    <t>Click event</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Test_Event_748</t>
+  </si>
+  <si>
+    <t>test12345</t>
+  </si>
+  <si>
+    <t>Enrollment_Landing_Page</t>
+  </si>
+  <si>
+    <t>Test_Event_929</t>
+  </si>
+  <si>
+    <t>FileOperation</t>
+  </si>
+  <si>
+    <t>testHandler1</t>
+  </si>
+  <si>
+    <t>Atanu_Step_882</t>
+  </si>
+  <si>
+    <t>Atanu_Step_550</t>
   </si>
 </sst>
 </file>
@@ -561,9 +691,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -596,9 +726,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,97 +833,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +863,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +971,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,163 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,6 +1054,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -951,30 +1120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,23 +1138,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,139 +1168,139 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,45 +1702,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1644,63 +1774,63 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1737,110 +1867,453 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:14">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" t="s">
         <v>162</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.4285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.7142857142857" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.8571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.2857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.8571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.1428571428571" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.7142857142857" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.7142857142857" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.7142857142857" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.5714285714286" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="18.1428571428571" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="45.1428571428571" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="38.5714285714286" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="17.7142857142857" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.5714285714286" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" t="s">
+        <v>200</v>
+      </c>
+      <c r="T2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" t="s">
+        <v>202</v>
+      </c>
+      <c r="V2" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
       <c r="L3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
-        <v>157</v>
+        <v>195</v>
+      </c>
+      <c r="O3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V3" t="s">
+        <v>203</v>
+      </c>
+      <c r="W3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T4" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" t="s">
+        <v>203</v>
+      </c>
+      <c r="W4" t="s">
+        <v>204</v>
+      </c>
+      <c r="X4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1852,13 +2325,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F9" sqref="F13 F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.5714285714286" collapsed="true"/>
@@ -1925,7 +2398,12 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1937,10 +2415,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1949,69 +2427,83 @@
     <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="27.4285714285714" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="80.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.4285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.2857142857143" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.8571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="17.25" spans="1:9">
+    <row r="1" s="4" customFormat="1" ht="17.25" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:9">
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:11">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>166</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2536,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:1">
@@ -2125,22 +2617,22 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:9">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2149,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
@@ -2157,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2220,49 +2712,49 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -2271,63 +2763,63 @@
         <v>7</v>
       </c>
       <c r="R1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2836,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2364,89 +2856,89 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2476,19 +2968,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2497,7 +2989,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2505,25 +2997,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2531,16 +3023,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -2549,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2577,44 +3069,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -12,21 +12,21 @@
     <sheet name="Step_Details" sheetId="3" r:id="rId3"/>
     <sheet name="Application_Removal" sheetId="4" r:id="rId4"/>
     <sheet name="Section_Details" sheetId="5" r:id="rId5"/>
-    <sheet name="Field_Details" sheetId="6" r:id="rId6"/>
-    <sheet name="Condition_Details" sheetId="7" r:id="rId7"/>
-    <sheet name="Block_Details" sheetId="8" r:id="rId8"/>
-    <sheet name="Message_Details" sheetId="9" r:id="rId9"/>
-    <sheet name="Workflow_Details" sheetId="10" r:id="rId10"/>
-    <sheet name="Modal_Details" sheetId="11" r:id="rId11"/>
-    <sheet name="Validation_Message_Details" sheetId="12" r:id="rId12"/>
-    <sheet name="Event_Details" sheetId="13" r:id="rId13"/>
+    <sheet name="Condition_Details" sheetId="7" r:id="rId6"/>
+    <sheet name="Block_Details" sheetId="8" r:id="rId7"/>
+    <sheet name="Message_Details" sheetId="9" r:id="rId8"/>
+    <sheet name="Workflow_Details" sheetId="10" r:id="rId9"/>
+    <sheet name="Modal_Details" sheetId="11" r:id="rId10"/>
+    <sheet name="Validation_Message_Details" sheetId="12" r:id="rId11"/>
+    <sheet name="Event_Details" sheetId="13" r:id="rId12"/>
+    <sheet name="Field_Details" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="256">
   <si>
     <t>Email</t>
   </si>
@@ -70,7 +70,7 @@
     <t>atanu</t>
   </si>
   <si>
-    <t>CEE_16616</t>
+    <t>Atanu_Test_318</t>
   </si>
   <si>
     <t>Application Step Name</t>
@@ -130,10 +130,7 @@
     <t>single_column</t>
   </si>
   <si>
-    <t>Atanu_Step_400</t>
-  </si>
-  <si>
-    <t>Atanu_Test_318</t>
+    <t>Atanu_Step_396</t>
   </si>
   <si>
     <t>Section Number</t>
@@ -148,6 +145,18 @@
     <t>Section Class Name</t>
   </si>
   <si>
+    <t>Section Event</t>
+  </si>
+  <si>
+    <t>Display Condition</t>
+  </si>
+  <si>
+    <t>Editable Condition</t>
+  </si>
+  <si>
+    <t>Mandatory Condition</t>
+  </si>
+  <si>
     <t>Modified Section Name</t>
   </si>
   <si>
@@ -163,10 +172,463 @@
     <t>custom-class</t>
   </si>
   <si>
+    <t>Custom_function_Save&amp;Cancel_Button_30793_1</t>
+  </si>
+  <si>
+    <t>ssn_30152_generated_name_1c6b6771-b465-4f7a-8c52-13e2d914efce</t>
+  </si>
+  <si>
+    <t>legal_name_update_button_73822_generated_name_2e18d1b2-9e04-4846-ab08-8ff901bf0234</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>Test_Section_357</t>
+    <t>test_section 1</t>
+  </si>
+  <si>
+    <t>testEvent1</t>
+  </si>
+  <si>
+    <t>Test_Condition_849</t>
+  </si>
+  <si>
+    <t>Test_Condition_303</t>
+  </si>
+  <si>
+    <t>Test_Condition_540</t>
+  </si>
+  <si>
+    <t>Test_Section_924</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition ID</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Field Unique Id</t>
+  </si>
+  <si>
+    <t>Comparison Operator</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Modified Condition Name</t>
+  </si>
+  <si>
+    <t>Test_Condition</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>##http/api</t>
+  </si>
+  <si>
+    <t>( Condition1 )</t>
+  </si>
+  <si>
+    <t>Test_Condition_530</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>Atanu_Step_684</t>
+  </si>
+  <si>
+    <t>user_name_275</t>
+  </si>
+  <si>
+    <t>( Condition2 )</t>
+  </si>
+  <si>
+    <t>Application Block Name</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified Block Name</t>
+  </si>
+  <si>
+    <t>genericBlock</t>
+  </si>
+  <si>
+    <t>This is generic block type desc</t>
+  </si>
+  <si>
+    <t>col-mo-10</t>
+  </si>
+  <si>
+    <t>cutom-10-name</t>
+  </si>
+  <si>
+    <t>test_field</t>
+  </si>
+  <si>
+    <t>Atanu_Test_965</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>This is menu block type desc</t>
+  </si>
+  <si>
+    <t>cutom-10</t>
+  </si>
+  <si>
+    <t>Atanu_Test_629</t>
+  </si>
+  <si>
+    <t>Enter a message code</t>
+  </si>
+  <si>
+    <t>Select a message type</t>
+  </si>
+  <si>
+    <t>Enter the message to be displayed</t>
+  </si>
+  <si>
+    <t>Modified Message Code</t>
+  </si>
+  <si>
+    <t>atanu_test_message</t>
+  </si>
+  <si>
+    <t>Static Message Text</t>
+  </si>
+  <si>
+    <t>This message is for testing perpose</t>
+  </si>
+  <si>
+    <t>atanu_test_message_166</t>
+  </si>
+  <si>
+    <t>Dynamic Message Text</t>
+  </si>
+  <si>
+    <t>atanu_test_message_331</t>
+  </si>
+  <si>
+    <t>Name of the workflow</t>
+  </si>
+  <si>
+    <t>Associate Progress Bar</t>
+  </si>
+  <si>
+    <t>Step Count Color</t>
+  </si>
+  <si>
+    <t>Percentage Text Color</t>
+  </si>
+  <si>
+    <t>Progress Bar Color</t>
+  </si>
+  <si>
+    <t>Modified Workflow Name</t>
+  </si>
+  <si>
+    <t>Test_Workflow</t>
+  </si>
+  <si>
+    <t>Atanu_Step_199</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Test_Workflow_472</t>
+  </si>
+  <si>
+    <t>Modal Id</t>
+  </si>
+  <si>
+    <t>Modal Type</t>
+  </si>
+  <si>
+    <t>Modal Title</t>
+  </si>
+  <si>
+    <t>Icon For Modal Close Button</t>
+  </si>
+  <si>
+    <t>Modal Message Text</t>
+  </si>
+  <si>
+    <t>Enter value for input form fields</t>
+  </si>
+  <si>
+    <t>Button Label</t>
+  </si>
+  <si>
+    <t>Button Type</t>
+  </si>
+  <si>
+    <t>Link Event</t>
+  </si>
+  <si>
+    <t>Modified Modal Id</t>
+  </si>
+  <si>
+    <t>Test_Modal</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>testModal</t>
+  </si>
+  <si>
+    <t>closeicon</t>
+  </si>
+  <si>
+    <t>Warning!! This is for testing purpose</t>
+  </si>
+  <si>
+    <t>btnLabel</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Test_Modal_55</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Validation Message Type</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Associate Message Code</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Conditional ID</t>
+  </si>
+  <si>
+    <t>CompareBy</t>
+  </si>
+  <si>
+    <t>Condition Query</t>
+  </si>
+  <si>
+    <t>Expected Validation Message Type</t>
+  </si>
+  <si>
+    <t>Test_Validation</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Test_Validation_368</t>
+  </si>
+  <si>
+    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Test_Validation_22</t>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>Atanu_Step_716</t>
+  </si>
+  <si>
+    <t>user_name_387</t>
+  </si>
+  <si>
+    <t>##apikey</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>( Condition3 )</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Modified Event Name</t>
+  </si>
+  <si>
+    <t>Next Event Id</t>
+  </si>
+  <si>
+    <t>Library Id</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Display Step</t>
+  </si>
+  <si>
+    <t>Display Workflow</t>
+  </si>
+  <si>
+    <t>Event Handler</t>
+  </si>
+  <si>
+    <t>Field Value</t>
+  </si>
+  <si>
+    <t>Handler Name</t>
+  </si>
+  <si>
+    <t>CallBck API key</t>
+  </si>
+  <si>
+    <t>Header Status Code</t>
+  </si>
+  <si>
+    <t>CallBck Next Event ID</t>
+  </si>
+  <si>
+    <t>Message Code</t>
+  </si>
+  <si>
+    <t>Response Key</t>
+  </si>
+  <si>
+    <t>Response Value</t>
+  </si>
+  <si>
+    <t>Checked event</t>
+  </si>
+  <si>
+    <t>Test_Event</t>
+  </si>
+  <si>
+    <t>Test_Event_792</t>
+  </si>
+  <si>
+    <t>My_TSA_Pre_Dashboard_26442</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Enrollment Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Enrollment Get Started</t>
+  </si>
+  <si>
+    <t>my_profile_section_title_30152</t>
+  </si>
+  <si>
+    <t>Not Equal</t>
+  </si>
+  <si>
+    <t>test_001</t>
+  </si>
+  <si>
+    <t>sessiontimeout</t>
+  </si>
+  <si>
+    <t>( Condition 1 )</t>
+  </si>
+  <si>
+    <t>RowIdentifierKey</t>
+  </si>
+  <si>
+    <t>row_234</t>
+  </si>
+  <si>
+    <t>API response</t>
+  </si>
+  <si>
+    <t>apikey123</t>
+  </si>
+  <si>
+    <t>API response header status 200(Success Response)</t>
+  </si>
+  <si>
+    <t>pending_application_modal_open_30116</t>
+  </si>
+  <si>
+    <t>Confirm email</t>
+  </si>
+  <si>
+    <t>responsekey1</t>
+  </si>
+  <si>
+    <t>resvalue1</t>
+  </si>
+  <si>
+    <t>Click event</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Test_Event_393</t>
+  </si>
+  <si>
+    <t>test12345</t>
+  </si>
+  <si>
+    <t>Enrollment_Landing_Page</t>
+  </si>
+  <si>
+    <t>Test_Event_495</t>
+  </si>
+  <si>
+    <t>FileOperation</t>
+  </si>
+  <si>
+    <t>testHandler1</t>
   </si>
   <si>
     <t>Unique Id</t>
@@ -208,6 +670,54 @@
     <t>Possible Values</t>
   </si>
   <si>
+    <t>IsDisplayConditional</t>
+  </si>
+  <si>
+    <t>IsEditableConditional</t>
+  </si>
+  <si>
+    <t>IsMandatoryConditional</t>
+  </si>
+  <si>
+    <t>Conditional Value</t>
+  </si>
+  <si>
+    <t>Condition Step</t>
+  </si>
+  <si>
+    <t>Condition Field</t>
+  </si>
+  <si>
+    <t>Condition Comparison Operator</t>
+  </si>
+  <si>
+    <t>Condition Field Value</t>
+  </si>
+  <si>
+    <t>Condition Api Key</t>
+  </si>
+  <si>
+    <t>Values To Be Populated</t>
+  </si>
+  <si>
+    <t>Value Option Value</t>
+  </si>
+  <si>
+    <t>Value Other Value</t>
+  </si>
+  <si>
+    <t>Value Step ID</t>
+  </si>
+  <si>
+    <t>Value Step Field</t>
+  </si>
+  <si>
+    <t>Value Step Field Value</t>
+  </si>
+  <si>
+    <t>Validation Message Name</t>
+  </si>
+  <si>
     <t>Modified Uniq Id</t>
   </si>
   <si>
@@ -220,7 +730,7 @@
     <t>Textfield</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter Your Username </t>
+    <t>Enter Your Username</t>
   </si>
   <si>
     <t>Username needed</t>
@@ -241,448 +751,49 @@
     <t>col-6</t>
   </si>
   <si>
+    <t>user_name_436</t>
+  </si>
+  <si>
+    <t>Greater than</t>
+  </si>
+  <si>
+    <t>http://condition/api</t>
+  </si>
+  <si>
+    <t>value_option_value_123</t>
+  </si>
+  <si>
+    <t>value_other_value_345</t>
+  </si>
+  <si>
+    <t>Step Name:- ATANU_STEP_396 Step ID:- 31652</t>
+  </si>
+  <si>
+    <t>value_step_field_098</t>
+  </si>
+  <si>
+    <t>value_step_field_value_007</t>
+  </si>
+  <si>
     <t>Comparison Field</t>
   </si>
   <si>
     <t>test_field122</t>
   </si>
   <si>
-    <t>user_name_674</t>
-  </si>
-  <si>
-    <t>Condition Name</t>
-  </si>
-  <si>
-    <t>Condition ID</t>
-  </si>
-  <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Block Name</t>
-  </si>
-  <si>
-    <t>Field Unique Id</t>
-  </si>
-  <si>
-    <t>Comparison Operator</t>
-  </si>
-  <si>
-    <t>Field Values</t>
-  </si>
-  <si>
-    <t>Api Key</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Modified Condition Name</t>
-  </si>
-  <si>
-    <t>Test_Condition</t>
-  </si>
-  <si>
-    <t>Condition1</t>
-  </si>
-  <si>
-    <t>Atanu_Step_396</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>##http/api</t>
-  </si>
-  <si>
-    <t>( Condition1 )</t>
-  </si>
-  <si>
-    <t>Test_Condition_530</t>
-  </si>
-  <si>
-    <t>Condition2</t>
-  </si>
-  <si>
-    <t>Atanu_Step_684</t>
-  </si>
-  <si>
-    <t>user_name_275</t>
-  </si>
-  <si>
-    <t>( Condition2 )</t>
-  </si>
-  <si>
-    <t>Application Block Name</t>
-  </si>
-  <si>
-    <t>Block Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Modified Block Name</t>
-  </si>
-  <si>
-    <t>genericBlock</t>
-  </si>
-  <si>
-    <t>This is generic block type desc</t>
-  </si>
-  <si>
-    <t>col-mo-10</t>
-  </si>
-  <si>
-    <t>cutom-10-name</t>
-  </si>
-  <si>
-    <t>test_field</t>
-  </si>
-  <si>
-    <t>Atanu_Test_965</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>This is menu block type desc</t>
-  </si>
-  <si>
-    <t>cutom-10</t>
-  </si>
-  <si>
-    <t>Atanu_Test_629</t>
-  </si>
-  <si>
-    <t>Enter a message code</t>
-  </si>
-  <si>
-    <t>Select a message type</t>
-  </si>
-  <si>
-    <t>Enter the message to be displayed</t>
-  </si>
-  <si>
-    <t>Modified Message Code</t>
-  </si>
-  <si>
-    <t>atanu_test_message</t>
-  </si>
-  <si>
-    <t>Static Message Text</t>
-  </si>
-  <si>
-    <t>This message is for testing perpose</t>
-  </si>
-  <si>
-    <t>atanu_test_message_166</t>
-  </si>
-  <si>
-    <t>Dynamic Message Text</t>
-  </si>
-  <si>
-    <t>atanu_test_message_331</t>
-  </si>
-  <si>
-    <t>Name of the workflow</t>
-  </si>
-  <si>
-    <t>Associate Progress Bar</t>
-  </si>
-  <si>
-    <t>Step Count Color</t>
-  </si>
-  <si>
-    <t>Percentage Text Color</t>
-  </si>
-  <si>
-    <t>Progress Bar Color</t>
-  </si>
-  <si>
-    <t>Modified Workflow Name</t>
-  </si>
-  <si>
-    <t>Test_Workflow</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Test_Workflow_472</t>
-  </si>
-  <si>
-    <t>Modal Id</t>
-  </si>
-  <si>
-    <t>Modal Type</t>
-  </si>
-  <si>
-    <t>Modal Title</t>
-  </si>
-  <si>
-    <t>Icon For Modal Close Button</t>
-  </si>
-  <si>
-    <t>Modal Message Text</t>
-  </si>
-  <si>
-    <t>Enter value for input form fields</t>
-  </si>
-  <si>
-    <t>Button Label</t>
-  </si>
-  <si>
-    <t>Button Type</t>
-  </si>
-  <si>
-    <t>Link Event</t>
-  </si>
-  <si>
-    <t>Modified Modal Id</t>
-  </si>
-  <si>
-    <t>Test_Modal</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>testModal</t>
-  </si>
-  <si>
-    <t>closeicon</t>
-  </si>
-  <si>
-    <t>Warning!! This is for testing purpose</t>
-  </si>
-  <si>
-    <t>btnLabel</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Test_Modal_55</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Validation Message Type</t>
-  </si>
-  <si>
-    <t>Display Type</t>
-  </si>
-  <si>
-    <t>Associate Message Code</t>
-  </si>
-  <si>
-    <t>Modified Name</t>
-  </si>
-  <si>
-    <t>Conditional ID</t>
-  </si>
-  <si>
-    <t>CompareBy</t>
-  </si>
-  <si>
-    <t>Condition Query</t>
-  </si>
-  <si>
-    <t>Expected Validation Message Type</t>
-  </si>
-  <si>
-    <t>Test_Validation</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Inline</t>
-  </si>
-  <si>
-    <t>Test_Validation_368</t>
-  </si>
-  <si>
-    <t>|- None -|Mandatory|Regex|Conditional|Individual File Size|Total File Size|File Type</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>Test_Validation_22</t>
-  </si>
-  <si>
-    <t>Condition3</t>
-  </si>
-  <si>
-    <t>Atanu_Step_716</t>
-  </si>
-  <si>
-    <t>user_name_387</t>
-  </si>
-  <si>
-    <t>##apikey</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>( Condition3 )</t>
-  </si>
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Name</t>
-  </si>
-  <si>
-    <t>Modified Event Name</t>
-  </si>
-  <si>
-    <t>Next Event Id</t>
-  </si>
-  <si>
-    <t>Library Id</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Display Step</t>
-  </si>
-  <si>
-    <t>Display Workflow</t>
-  </si>
-  <si>
-    <t>Event Handler</t>
-  </si>
-  <si>
-    <t>Field Value</t>
-  </si>
-  <si>
-    <t>Handler Name</t>
-  </si>
-  <si>
-    <t>CallBck API key</t>
-  </si>
-  <si>
-    <t>Header Status Code</t>
-  </si>
-  <si>
-    <t>CallBck Next Event ID</t>
-  </si>
-  <si>
-    <t>Message Code</t>
-  </si>
-  <si>
-    <t>Response Key</t>
-  </si>
-  <si>
-    <t>Response Value</t>
-  </si>
-  <si>
-    <t>Checked event</t>
-  </si>
-  <si>
-    <t>Test_Event</t>
-  </si>
-  <si>
-    <t>Test_Event_675</t>
-  </si>
-  <si>
-    <t>My_TSA_Pre_Dashboard_26442</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>Enrollment Terms &amp; Conditions</t>
-  </si>
-  <si>
-    <t>Enrollment Get Started</t>
-  </si>
-  <si>
-    <t>my_profile_section_title_30152</t>
-  </si>
-  <si>
-    <t>Not Equal</t>
-  </si>
-  <si>
-    <t>test_001</t>
-  </si>
-  <si>
-    <t>sessiontimeout</t>
-  </si>
-  <si>
-    <t>( Condition 1 )</t>
-  </si>
-  <si>
-    <t>RowIdentifierKey</t>
-  </si>
-  <si>
-    <t>row_234</t>
-  </si>
-  <si>
-    <t>API response</t>
-  </si>
-  <si>
-    <t>apikey123</t>
-  </si>
-  <si>
-    <t>API response header status 200(Success Response)</t>
-  </si>
-  <si>
-    <t>pending_application_modal_open_30116</t>
-  </si>
-  <si>
-    <t>Confirm email</t>
-  </si>
-  <si>
-    <t>responsekey1</t>
-  </si>
-  <si>
-    <t>resvalue1</t>
-  </si>
-  <si>
-    <t>Click event</t>
-  </si>
-  <si>
-    <t>Workflow</t>
-  </si>
-  <si>
-    <t>Test_Event_748</t>
-  </si>
-  <si>
-    <t>test12345</t>
-  </si>
-  <si>
-    <t>Enrollment_Landing_Page</t>
-  </si>
-  <si>
-    <t>Test_Event_929</t>
-  </si>
-  <si>
-    <t>FileOperation</t>
-  </si>
-  <si>
-    <t>testHandler1</t>
-  </si>
-  <si>
-    <t>Atanu_Step_882</t>
-  </si>
-  <si>
-    <t>Atanu_Step_550</t>
+    <t>testEvent1 (testEvent1_31692)</t>
+  </si>
+  <si>
+    <t>user_name_7808</t>
+  </si>
+  <si>
+    <t>user_name_449</t>
+  </si>
+  <si>
+    <t>user_name_731</t>
+  </si>
+  <si>
+    <t>user_name_9235</t>
   </si>
 </sst>
 </file>
@@ -690,10 +801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -712,15 +823,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,14 +853,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,37 +905,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -810,7 +914,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,7 +937,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +952,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,139 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1004,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,19 +1142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,17 +1168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,11 +1192,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,15 +1227,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,15 +1248,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1154,141 +1256,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,14 +1408,14 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,16 +1425,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1661,18 +1775,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>123456</v>
       </c>
     </row>
@@ -1683,73 +1797,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.4285714285714" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="22.7142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2857142857143" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J2"/>
@@ -1774,63 +1821,63 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N3"/>
@@ -1867,110 +1914,110 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:14">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA4"/>
@@ -2019,58 +2066,58 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="Q1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -2079,244 +2126,664 @@
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="V1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="W1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="X1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Y1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AA1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" t="s">
+        <v>186</v>
+      </c>
+      <c r="V2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="X2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Y2" t="s">
         <v>190</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Z2" t="s">
         <v>191</v>
       </c>
-      <c r="F2" t="s">
+      <c r="AA2" t="s">
         <v>192</v>
-      </c>
-      <c r="H2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>198</v>
-      </c>
-      <c r="R2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S2" t="s">
-        <v>200</v>
-      </c>
-      <c r="T2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" t="s">
-        <v>203</v>
-      </c>
-      <c r="W2" t="s">
-        <v>204</v>
-      </c>
-      <c r="X2" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" t="s">
+        <v>186</v>
+      </c>
+      <c r="V3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" t="s">
         <v>189</v>
       </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="Y3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z3" t="s">
         <v>191</v>
       </c>
-      <c r="F3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>198</v>
-      </c>
-      <c r="R3" t="s">
-        <v>199</v>
-      </c>
-      <c r="S3" t="s">
-        <v>200</v>
-      </c>
-      <c r="T3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U3" t="s">
-        <v>202</v>
-      </c>
-      <c r="V3" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>207</v>
-      </c>
       <c r="AA3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" t="s">
+        <v>187</v>
+      </c>
+      <c r="W4" t="s">
+        <v>188</v>
+      </c>
+      <c r="X4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.4285714285714" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.1428571428571" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.2857142857143" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.5714285714286" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.2857142857143" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.1428571428571" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="21.8571428571429" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="23.8571428571429" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.4285714285714" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.7142857142857" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="18.4285714285714" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="20.1428571428571" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="19.7142857142857" collapsed="false"/>
+    <col min="16" max="19" customWidth="true" width="21.8571428571429" collapsed="false"/>
+    <col min="20" max="24" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="26" max="30" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="42.5714285714286" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="20.4285714285714" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="16.7142857142857" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="31.1428571428571" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="35.4285714285714" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="22.7142857142857" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
         <v>209</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>217</v>
+      </c>
+      <c r="W1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:38">
+      <c r="A2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" t="s">
-        <v>200</v>
-      </c>
-      <c r="T4" t="s">
-        <v>201</v>
-      </c>
-      <c r="U4" t="s">
-        <v>202</v>
-      </c>
-      <c r="V4" t="s">
-        <v>203</v>
-      </c>
-      <c r="W4" t="s">
-        <v>204</v>
-      </c>
-      <c r="X4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>208</v>
+      <c r="AA2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:38">
+      <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:38">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="http#:/#api-key"/>
+    <hyperlink ref="H3" r:id="rId1" display="http#:/#api-key"/>
+    <hyperlink ref="H4" r:id="rId1" display="http#:/#api-key"/>
+    <hyperlink ref="AA2" r:id="rId2" display="http://condition/api"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2328,7 +2795,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F13 F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2341,20 +2808,20 @@
     <col min="6" max="6" customWidth="true" width="34.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
@@ -2362,19 +2829,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -2382,19 +2849,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -2415,13 +2882,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.2857142857143" collapsed="true"/>
@@ -2433,82 +2900,117 @@
     <col min="8" max="8" customWidth="true" width="25.2857142857143" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="18.8571428571429" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="17.25" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:11">
+    <row r="2" s="5" customFormat="1" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:11">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="11:11">
+      <c r="K4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.api.url"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.api.url"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2536,56 +3038,56 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" ht="17.25" spans="1:1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" ht="17.25" spans="1:1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" ht="17.25" spans="1:1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" ht="17.25" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" ht="17.25" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" ht="17.25" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" ht="17.25" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="17.25" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" ht="17.25" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" ht="17.25" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" ht="17.25" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" ht="17.25" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" ht="17.25" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" ht="17.25" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" ht="17.25" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2596,13 +3098,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="22.2857142857143" collapsed="true"/>
@@ -2610,23 +3112,27 @@
     <col min="4" max="4" customWidth="true" width="24.2857142857143" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="27.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.5714285714286" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="79.2857142857143" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="63.4285714285714" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="87.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.5714285714286" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="27.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:9">
+    <row r="1" ht="17.25" spans="1:13">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -2635,42 +3141,112 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13">
+      <c r="M4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2680,158 +3256,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.8571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5714285714286" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.5714285714286" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.2857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.7142857142857" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.4285714285714" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="24.1428571428571" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.4285714285714" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.8571428571429" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="27.7142857142857" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="http#:/#api-key"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J3"/>
@@ -2856,89 +3280,89 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +3371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H3"/>
@@ -2968,13 +3392,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -2989,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2997,25 +3421,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3023,16 +3447,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -3041,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
@@ -3069,44 +3493,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="22.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.2857142857143" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ESF/Resources/TestData/Testdata1.xlsx
+++ b/ESF/Resources/TestData/Testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="268">
   <si>
     <t>Email</t>
   </si>
@@ -274,6 +274,18 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Display Condition Name</t>
+  </si>
+  <si>
+    <t>Editable Condition Name</t>
+  </si>
+  <si>
+    <t>Mandatory Condition Name</t>
+  </si>
+  <si>
     <t>Modified Block Name</t>
   </si>
   <si>
@@ -496,9 +508,6 @@
     <t>Event Type</t>
   </si>
   <si>
-    <t>Event Name</t>
-  </si>
-  <si>
     <t>Modified Event Name</t>
   </si>
   <si>
@@ -784,7 +793,7 @@
     <t>testEvent1 (testEvent1_31692)</t>
   </si>
   <si>
-    <t>user_name_7808</t>
+    <t>user_name_9235</t>
   </si>
   <si>
     <t>user_name_449</t>
@@ -793,7 +802,34 @@
     <t>user_name_731</t>
   </si>
   <si>
-    <t>user_name_9235</t>
+    <t>Atanu_Test_9803</t>
+  </si>
+  <si>
+    <t>Atanu_Test_9446</t>
+  </si>
+  <si>
+    <t>Atanu_Test_4929</t>
+  </si>
+  <si>
+    <t>Atanu_Test_7489</t>
+  </si>
+  <si>
+    <t>Atanu_Test_1227</t>
+  </si>
+  <si>
+    <t>Atanu_Test_4979</t>
+  </si>
+  <si>
+    <t>Atanu_Test_1406</t>
+  </si>
+  <si>
+    <t>user_name_4841</t>
+  </si>
+  <si>
+    <t>user_name_565</t>
+  </si>
+  <si>
+    <t>user_name_2658</t>
   </si>
 </sst>
 </file>
@@ -801,9 +837,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -837,11 +873,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,23 +896,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,6 +928,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -906,7 +949,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -929,30 +988,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,13 +1016,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,37 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,55 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1154,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1208,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,6 +1254,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,38 +1285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,15 +1301,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1273,145 +1309,145 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1821,63 +1857,63 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1914,22 +1950,22 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
@@ -1947,59 +1983,59 @@
         <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:14">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>71</v>
@@ -2008,16 +2044,16 @@
         <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2066,34 +2102,34 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K1" t="s">
         <v>59</v>
@@ -2111,7 +2147,7 @@
         <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q1" t="s">
         <v>65</v>
@@ -2126,241 +2162,241 @@
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="W1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
         <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
         <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
         <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2374,80 +2410,80 @@
   <sheetPr/>
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.4285714285714" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.1428571428571" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.2857142857143" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.5714285714286" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.2857142857143" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="17.1428571428571" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="21.8571428571429" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="23.8571428571429" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.4285714285714" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.7142857142857" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="18.4285714285714" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="20.1428571428571" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="19.7142857142857" collapsed="false"/>
-    <col min="16" max="19" customWidth="true" width="21.8571428571429" collapsed="false"/>
-    <col min="20" max="24" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="32.0" collapsed="false"/>
-    <col min="26" max="30" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="42.5714285714286" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="32.0" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="20.4285714285714" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="16.7142857142857" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="31.1428571428571" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="35.4285714285714" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="22.7142857142857" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.1428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.8571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="23.8571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.4285714285714" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.7142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.1428571428571" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.7142857142857" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" width="21.8571428571429" collapsed="true"/>
+    <col min="20" max="24" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="26" max="30" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="42.5714285714286" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="20.4285714285714" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="16.7142857142857" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="31.1428571428571" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="35.4285714285714" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:38">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -2456,58 +2492,58 @@
         <v>18</v>
       </c>
       <c r="P1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q1" t="s">
         <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="U1" t="s">
         <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="W1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="X1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Y1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Z1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AA1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AB1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AD1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AE1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AH1" t="s">
         <v>6</v>
@@ -2516,48 +2552,48 @@
         <v>7</v>
       </c>
       <c r="AJ1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G2" s="1">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>51</v>
@@ -2569,7 +2605,7 @@
         <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P2" s="1">
         <v>2</v>
@@ -2596,84 +2632,84 @@
         <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AB2" s="1">
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AL2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G3" s="1">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>51</v>
@@ -2685,7 +2721,7 @@
         <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -2700,48 +2736,48 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AL3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G4" s="1">
         <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>51</v>
@@ -2753,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -2765,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3100,8 +3136,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -3374,23 +3410,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="22.7142857142857" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="27.1428571428571" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="36.4285714285714" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.8571428571429" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="33.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3407,65 +3443,89 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>92</v>
+      <c r="L3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3493,44 +3553,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3559,45 +3619,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
